--- a/프로젝트정보_1조.xlsx
+++ b/프로젝트정보_1조.xlsx
@@ -717,6 +717,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -750,15 +807,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -792,9 +840,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -807,58 +852,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,7 +1144,7 @@
   <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:R24"/>
+      <selection activeCell="N9" sqref="N9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1160,634 +1160,670 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
       <c r="K4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="9">
         <v>44650</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
       <c r="K6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="9">
         <v>44896</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
       <c r="O6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="47" t="s">
+      <c r="P6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="54" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="K7" s="20" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="K7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="54" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="47" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="54" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="50" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="47" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="50" t="s">
+      <c r="M9" s="8"/>
+      <c r="N9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="52"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="33" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="33" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="K12" s="20" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="K12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="27"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="43"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="46"/>
     </row>
     <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="K15" s="20" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="K15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="31"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
     </row>
     <row r="21" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="K21" s="35" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="K21" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="43"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="36"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="43"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
     </row>
     <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="37"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="46"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="26"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
-      <c r="K25" s="8" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+      <c r="K25" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="12"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="31"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="15"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="34"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="15"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="18"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="37"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="53" t="str">
+      <c r="B29" s="17" t="str">
         <f>C4</f>
         <v>같이살아 더 가치있는 , 가치살자!</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="53" t="str">
+      <c r="F29" s="17" t="str">
         <f>C5</f>
         <v>AI활용 소프트웨어 개발 및 응용과정</v>
       </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="19" t="str">
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="K29" s="55" t="str">
         <f>L4</f>
         <v>실종자 찾기 프로젝트</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
       <c r="N29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O29" s="19" t="str">
+      <c r="O29" s="55" t="str">
         <f>L5</f>
         <v>웹 개발 및 응용과정</v>
       </c>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:R28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:R14"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:R20"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:R24"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="K1:R2"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:I14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:I20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C21:I24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:I28"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="E10:I10"/>
@@ -1804,42 +1840,6 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E9:I9"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C21:I24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:I28"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:I14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:I20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="K1:R2"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:R28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="L12:R14"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="L15:R20"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:R24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
